--- a/store/clean_data_lgbm.xlsx
+++ b/store/clean_data_lgbm.xlsx
@@ -534,7 +534,7 @@
         <v>17.78597102534896</v>
       </c>
       <c r="I2" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J2" t="n">
         <v>36.26316343785778</v>
@@ -579,7 +579,7 @@
         <v>17.78597102534896</v>
       </c>
       <c r="I3" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J3" t="n">
         <v>34.53634613129312</v>
@@ -624,7 +624,7 @@
         <v>17.78597102534896</v>
       </c>
       <c r="I4" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J4" t="n">
         <v>34.53634613129312</v>
@@ -669,7 +669,7 @@
         <v>17.78597102534896</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71190138854969</v>
+        <v>0.0987119013885497</v>
       </c>
       <c r="J5" t="n">
         <v>46.63155290242142</v>
@@ -714,7 +714,7 @@
         <v>15.5527387997893</v>
       </c>
       <c r="I6" t="n">
-        <v>88.08953993391304</v>
+        <v>0.08808953993391304</v>
       </c>
       <c r="J6" t="n">
         <v>34.3764058278685</v>
@@ -759,7 +759,7 @@
         <v>17.78597102534896</v>
       </c>
       <c r="I7" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J7" t="n">
         <v>34.53634613129312</v>
@@ -804,7 +804,7 @@
         <v>17.34438430604422</v>
       </c>
       <c r="I8" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J8" t="n">
         <v>34.53634613129312</v>
@@ -849,7 +849,7 @@
         <v>17.34438430604422</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J9" t="n">
         <v>32.96651221623434</v>
@@ -894,7 +894,7 @@
         <v>17.34438430604422</v>
       </c>
       <c r="I10" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J10" t="n">
         <v>34.53634613129312</v>
@@ -939,7 +939,7 @@
         <v>17.34438430604422</v>
       </c>
       <c r="I11" t="n">
-        <v>80.80378809522657</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J11" t="n">
         <v>34.53634613129312</v>
@@ -984,7 +984,7 @@
         <v>16.75571551329558</v>
       </c>
       <c r="I12" t="n">
-        <v>76.12321440255313</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J12" t="n">
         <v>34.16261329285311</v>
@@ -1029,7 +1029,7 @@
         <v>16.75571551329558</v>
       </c>
       <c r="I13" t="n">
-        <v>76.12321440255313</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J13" t="n">
         <v>32.53582218366963</v>
@@ -1074,7 +1074,7 @@
         <v>15.22699229246827</v>
       </c>
       <c r="I14" t="n">
-        <v>92.99399707138423</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J14" t="n">
         <v>39.74656320821067</v>
@@ -1119,7 +1119,7 @@
         <v>16.75571551329558</v>
       </c>
       <c r="I15" t="n">
-        <v>76.12321440255313</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J15" t="n">
         <v>35.96064557142432</v>
@@ -1164,7 +1164,7 @@
         <v>16.75571551329558</v>
       </c>
       <c r="I16" t="n">
-        <v>82.98693777956261</v>
+        <v>0.08298693777956261</v>
       </c>
       <c r="J16" t="n">
         <v>32.38514645056102</v>
@@ -1209,7 +1209,7 @@
         <v>16.75571551329558</v>
       </c>
       <c r="I17" t="n">
-        <v>76.12321440255313</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J17" t="n">
         <v>32.53582218366963</v>
@@ -1254,7 +1254,7 @@
         <v>14.65184365871588</v>
       </c>
       <c r="I18" t="n">
-        <v>92.99399707138423</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J18" t="n">
         <v>39.74656320821067</v>
@@ -1299,7 +1299,7 @@
         <v>14.65184365871588</v>
       </c>
       <c r="I19" t="n">
-        <v>82.98693777956261</v>
+        <v>0.08298693777956261</v>
       </c>
       <c r="J19" t="n">
         <v>33.85719856195015</v>
@@ -1344,7 +1344,7 @@
         <v>14.65184365871588</v>
       </c>
       <c r="I20" t="n">
-        <v>92.99399707138423</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J20" t="n">
         <v>39.74656320821067</v>
@@ -1389,7 +1389,7 @@
         <v>16.33970778267607</v>
       </c>
       <c r="I21" t="n">
-        <v>76.12321440255313</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J21" t="n">
         <v>32.53582218366963</v>
@@ -1434,7 +1434,7 @@
         <v>9.931716418174604</v>
       </c>
       <c r="I22" t="n">
-        <v>76.66963619998307</v>
+        <v>0.07666963619998307</v>
       </c>
       <c r="J22" t="n">
         <v>34.40783673365094</v>
@@ -1479,7 +1479,7 @@
         <v>9.931716418174604</v>
       </c>
       <c r="I23" t="n">
-        <v>56.85409209262399</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J23" t="n">
         <v>24.30000684098214</v>
@@ -1524,7 +1524,7 @@
         <v>9.931716418174604</v>
       </c>
       <c r="I24" t="n">
-        <v>56.85409209262399</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J24" t="n">
         <v>24.30000684098214</v>
@@ -1569,7 +1569,7 @@
         <v>10.15596461808127</v>
       </c>
       <c r="I25" t="n">
-        <v>74.12037117565357</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J25" t="n">
         <v>35.01450140261939</v>
@@ -1614,7 +1614,7 @@
         <v>9.877591343905491</v>
       </c>
       <c r="I26" t="n">
-        <v>59.25293244532087</v>
+        <v>0.05925293244532087</v>
       </c>
       <c r="J26" t="n">
         <v>23.1230955884179</v>
@@ -1659,7 +1659,7 @@
         <v>10.15596461808127</v>
       </c>
       <c r="I27" t="n">
-        <v>74.12037117565357</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J27" t="n">
         <v>31.67978698332231</v>
@@ -1704,7 +1704,7 @@
         <v>9.931716418174604</v>
       </c>
       <c r="I28" t="n">
-        <v>76.66963619998307</v>
+        <v>0.07666963619998307</v>
       </c>
       <c r="J28" t="n">
         <v>32.7693683177628</v>
@@ -1749,7 +1749,7 @@
         <v>9.877591343905491</v>
       </c>
       <c r="I29" t="n">
-        <v>59.25293244532087</v>
+        <v>0.05925293244532087</v>
       </c>
       <c r="J29" t="n">
         <v>24.17414538789144</v>
@@ -1794,7 +1794,7 @@
         <v>10.15596461808127</v>
       </c>
       <c r="I30" t="n">
-        <v>74.12037117565357</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J30" t="n">
         <v>31.67978698332231</v>
@@ -1839,7 +1839,7 @@
         <v>9.931716418174604</v>
       </c>
       <c r="I31" t="n">
-        <v>56.85409209262399</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J31" t="n">
         <v>24.30000684098214</v>
@@ -1884,7 +1884,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I32" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J32" t="n">
         <v>25.52664193322871</v>
@@ -1929,7 +1929,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I33" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J33" t="n">
         <v>24.31108755545592</v>
@@ -1974,7 +1974,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I34" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J34" t="n">
         <v>24.31108755545592</v>
@@ -2019,7 +2019,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I35" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J35" t="n">
         <v>26.87014940339865</v>
@@ -2064,7 +2064,7 @@
         <v>9.882095489525147</v>
       </c>
       <c r="I36" t="n">
-        <v>59.27995156636297</v>
+        <v>0.05927995156636297</v>
       </c>
       <c r="J36" t="n">
         <v>23.13363963565384</v>
@@ -2109,7 +2109,7 @@
         <v>10.16059570089846</v>
       </c>
       <c r="I37" t="n">
-        <v>74.15416979452073</v>
+        <v>0.07415416979452072</v>
       </c>
       <c r="J37" t="n">
         <v>31.69423285061977</v>
@@ -2154,7 +2154,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I38" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J38" t="n">
         <v>24.31108755545592</v>
@@ -2199,7 +2199,7 @@
         <v>9.882095489525147</v>
       </c>
       <c r="I39" t="n">
-        <v>59.27995156636297</v>
+        <v>0.05927995156636297</v>
       </c>
       <c r="J39" t="n">
         <v>24.18516871000174</v>
@@ -2244,7 +2244,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I40" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J40" t="n">
         <v>24.31108755545592</v>
@@ -2289,7 +2289,7 @@
         <v>9.93624524463068</v>
       </c>
       <c r="I41" t="n">
-        <v>56.88001735121616</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J41" t="n">
         <v>24.31108755545592</v>
@@ -2334,7 +2334,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I42" t="n">
-        <v>372.9832716148161</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J42" t="n">
         <v>167.3876145783565</v>
@@ -2379,7 +2379,7 @@
         <v>48.51853421393094</v>
       </c>
       <c r="I43" t="n">
-        <v>422.4513763365304</v>
+        <v>0.4224513763365305</v>
       </c>
       <c r="J43" t="n">
         <v>180.5599378534764</v>
@@ -2424,7 +2424,7 @@
         <v>48.51853421393094</v>
       </c>
       <c r="I44" t="n">
-        <v>422.4513763365304</v>
+        <v>0.4224513763365305</v>
       </c>
       <c r="J44" t="n">
         <v>180.5599378534764</v>
@@ -2469,7 +2469,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I45" t="n">
-        <v>372.9832716148161</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J45" t="n">
         <v>176.197489029849</v>
@@ -2514,7 +2514,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I46" t="n">
-        <v>372.9832716148161</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J46" t="n">
         <v>145.5544474594404</v>
@@ -2559,7 +2559,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I47" t="n">
-        <v>372.9832716148161</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J47" t="n">
         <v>159.416775788911</v>
@@ -2604,7 +2604,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I48" t="n">
-        <v>399.0705802432965</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J48" t="n">
         <v>170.5667520668213</v>
@@ -2649,7 +2649,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I49" t="n">
-        <v>399.0705802432965</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J49" t="n">
         <v>162.8137178819658</v>
@@ -2694,7 +2694,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I50" t="n">
-        <v>399.0705802432965</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J50" t="n">
         <v>170.5667520668213</v>
@@ -2739,7 +2739,7 @@
         <v>46.36134056393795</v>
       </c>
       <c r="I51" t="n">
-        <v>399.0705802432965</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J51" t="n">
         <v>170.5667520668213</v>
@@ -2784,7 +2784,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I52" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J52" t="n">
         <v>14.89411761034809</v>
@@ -2829,7 +2829,7 @@
         <v>4.74888678205207</v>
       </c>
       <c r="I53" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J53" t="n">
         <v>16.3835293713829</v>
@@ -2874,7 +2874,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I54" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J54" t="n">
         <v>16.3835293713829</v>
@@ -2919,7 +2919,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I55" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J55" t="n">
         <v>15.60336130607895</v>
@@ -2964,7 +2964,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I56" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J56" t="n">
         <v>15.60336130607895</v>
@@ -3009,7 +3009,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I57" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J57" t="n">
         <v>17.24582039092937</v>
@@ -3054,7 +3054,7 @@
         <v>4.671041653199079</v>
       </c>
       <c r="I58" t="n">
-        <v>42.60904058996427</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J58" t="n">
         <v>16.62791827901045</v>
@@ -3099,7 +3099,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I59" t="n">
-        <v>36.50677740362494</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J59" t="n">
         <v>15.60336130607895</v>
@@ -3144,7 +3144,7 @@
         <v>4.537745440361723</v>
       </c>
       <c r="I60" t="n">
-        <v>39.06014545425192</v>
+        <v>0.03906014545425192</v>
       </c>
       <c r="J60" t="n">
         <v>16.69469631494159</v>
@@ -3189,7 +3189,7 @@
         <v>4.671041653199079</v>
       </c>
       <c r="I61" t="n">
-        <v>42.60904058996427</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J61" t="n">
         <v>17.3837327462382</v>
@@ -3234,7 +3234,7 @@
         <v>4.74888678205207</v>
       </c>
       <c r="I62" t="n">
-        <v>42.60904058996427</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J62" t="n">
         <v>18.21152954367811</v>
@@ -3279,7 +3279,7 @@
         <v>4.74888678205207</v>
       </c>
       <c r="I63" t="n">
-        <v>39.06014545425192</v>
+        <v>0.03906014545425192</v>
       </c>
       <c r="J63" t="n">
         <v>16.69469631494159</v>
@@ -3324,7 +3324,7 @@
         <v>11.64915007052664</v>
       </c>
       <c r="I64" t="n">
-        <v>69.86640126928222</v>
+        <v>0.06986640126928222</v>
       </c>
       <c r="J64" t="n">
         <v>28.50425240254529</v>
@@ -3369,7 +3369,7 @@
         <v>11.11244186155901</v>
       </c>
       <c r="I65" t="n">
-        <v>77.03733040774628</v>
+        <v>0.07703733040774628</v>
       </c>
       <c r="J65" t="n">
         <v>34.57285071957394</v>
@@ -3414,7 +3414,7 @@
         <v>11.64915007052664</v>
       </c>
       <c r="I66" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J66" t="n">
         <v>32.02404442310139</v>
@@ -3459,7 +3459,7 @@
         <v>11.64915007052664</v>
       </c>
       <c r="I67" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J67" t="n">
         <v>30.49908992676323</v>
@@ -3504,7 +3504,7 @@
         <v>11.64915007052664</v>
       </c>
       <c r="I68" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J68" t="n">
         <v>30.49908992676323</v>
@@ -3549,7 +3549,7 @@
         <v>11.11244186155901</v>
       </c>
       <c r="I69" t="n">
-        <v>77.03733040774628</v>
+        <v>0.07703733040774628</v>
       </c>
       <c r="J69" t="n">
         <v>36.39247444165678</v>
@@ -3594,7 +3594,7 @@
         <v>11.38164588328623</v>
       </c>
       <c r="I70" t="n">
-        <v>77.38688075944167</v>
+        <v>0.07738688075944168</v>
       </c>
       <c r="J70" t="n">
         <v>30.19975834514796</v>
@@ -3639,7 +3639,7 @@
         <v>11.34056851896906</v>
       </c>
       <c r="I71" t="n">
-        <v>77.38688075944167</v>
+        <v>0.07738688075944168</v>
       </c>
       <c r="J71" t="n">
         <v>33.07592580659063</v>
@@ -3684,7 +3684,7 @@
         <v>11.68738496549205</v>
       </c>
       <c r="I72" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J72" t="n">
         <v>30.49908992676323</v>
@@ -3729,7 +3729,7 @@
         <v>11.72846232980922</v>
       </c>
       <c r="I73" t="n">
-        <v>69.86640126928222</v>
+        <v>0.06986640126928222</v>
       </c>
       <c r="J73" t="n">
         <v>28.50425240254529</v>
@@ -3774,7 +3774,7 @@
         <v>11.68738496549205</v>
       </c>
       <c r="I74" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J74" t="n">
         <v>30.49908992676323</v>
@@ -3819,7 +3819,7 @@
         <v>11.68738496549205</v>
       </c>
       <c r="I75" t="n">
-        <v>71.35792507321507</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J75" t="n">
         <v>30.49908992676323</v>
@@ -3864,7 +3864,7 @@
         <v>7.510713373170602</v>
       </c>
       <c r="I76" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J76" t="n">
         <v>20.64729334375581</v>
@@ -3909,7 +3909,7 @@
         <v>7.510713373170602</v>
       </c>
       <c r="I77" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J77" t="n">
         <v>19.66408889881505</v>
@@ -3954,7 +3954,7 @@
         <v>7.510713373170602</v>
       </c>
       <c r="I78" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J78" t="n">
         <v>19.66408889881505</v>
@@ -3999,7 +3999,7 @@
         <v>7.510713373170602</v>
       </c>
       <c r="I79" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J79" t="n">
         <v>21.73399299342717</v>
@@ -4044,7 +4044,7 @@
         <v>7.561849433985647</v>
       </c>
       <c r="I80" t="n">
-        <v>45.0459055958216</v>
+        <v>0.0450459055958216</v>
       </c>
       <c r="J80" t="n">
         <v>17.57888998861331</v>
@@ -4089,7 +4089,7 @@
         <v>7.311757434585764</v>
       </c>
       <c r="I81" t="n">
-        <v>49.89468559585832</v>
+        <v>0.04989468559585832</v>
       </c>
       <c r="J81" t="n">
         <v>21.32548699102887</v>
@@ -4134,7 +4134,7 @@
         <v>7.535365071809547</v>
       </c>
       <c r="I82" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J82" t="n">
         <v>19.66408889881505</v>
@@ -4179,7 +4179,7 @@
         <v>7.561849433985647</v>
       </c>
       <c r="I83" t="n">
-        <v>45.0459055958216</v>
+        <v>0.0450459055958216</v>
       </c>
       <c r="J83" t="n">
         <v>18.37793044264119</v>
@@ -4224,7 +4224,7 @@
         <v>7.535365071809547</v>
       </c>
       <c r="I84" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J84" t="n">
         <v>19.66408889881505</v>
@@ -4269,7 +4269,7 @@
         <v>7.535365071809547</v>
       </c>
       <c r="I85" t="n">
-        <v>46.00755582032544</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J85" t="n">
         <v>19.66408889881505</v>

--- a/store/clean_data_lgbm.xlsx
+++ b/store/clean_data_lgbm.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,50 +460,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>code_number</t>
+          <t>codes</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>codes</t>
+          <t>code</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>code</t>
+          <t>gfa</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>gfa</t>
+          <t>EUI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>EUI</t>
+          <t>WEI_Area</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>WEI (Area)</t>
+          <t>WEI_People</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>WEI (People)</t>
+          <t>carbon_energy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>carbon_energy</t>
+          <t>carbon_water</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>carbon_water</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>carbon_index</t>
         </is>
@@ -522,38 +517,35 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H2" t="n">
-        <v>34658.327</v>
+        <v>17.78597102534896</v>
       </c>
       <c r="I2" t="n">
-        <v>17.78597102534896</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J2" t="n">
-        <v>80.80378809522657</v>
+        <v>36.26316343785778</v>
       </c>
       <c r="K2" t="n">
-        <v>36.26316343785778</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L2" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M2" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N2" t="n">
         <v>19.4795020452274</v>
       </c>
     </row>
@@ -570,38 +562,35 @@
       <c r="D3" t="n">
         <v>21</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H3" t="n">
-        <v>34658.327</v>
+        <v>17.78597102534896</v>
       </c>
       <c r="I3" t="n">
-        <v>17.78597102534896</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J3" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K3" t="n">
-        <v>34.53634613129312</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L3" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M3" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N3" t="n">
         <v>19.4795020452274</v>
       </c>
     </row>
@@ -618,38 +607,35 @@
       <c r="D4" t="n">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H4" t="n">
-        <v>34658.327</v>
+        <v>17.78597102534896</v>
       </c>
       <c r="I4" t="n">
-        <v>17.78597102534896</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J4" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K4" t="n">
-        <v>34.53634613129312</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L4" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M4" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N4" t="n">
         <v>19.4795020452274</v>
       </c>
     </row>
@@ -666,38 +652,35 @@
       <c r="D5" t="n">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H5" t="n">
-        <v>34658.327</v>
+        <v>17.78597102534896</v>
       </c>
       <c r="I5" t="n">
-        <v>17.78597102534896</v>
+        <v>0.0987119013885497</v>
       </c>
       <c r="J5" t="n">
-        <v>98.71190138854969</v>
+        <v>46.63155290242142</v>
       </c>
       <c r="K5" t="n">
-        <v>46.63155290242142</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L5" t="n">
-        <v>257052.143920382</v>
+        <v>4447.546164250942</v>
       </c>
       <c r="M5" t="n">
-        <v>4447.546164250942</v>
-      </c>
-      <c r="N5" t="n">
         <v>19.53979263781876</v>
       </c>
     </row>
@@ -714,38 +697,35 @@
       <c r="D6" t="n">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H6" t="n">
-        <v>34658.327</v>
+        <v>15.5527387997893</v>
       </c>
       <c r="I6" t="n">
-        <v>15.5527387997893</v>
+        <v>0.08808953993391304</v>
       </c>
       <c r="J6" t="n">
-        <v>88.08953993391304</v>
+        <v>34.3764058278685</v>
       </c>
       <c r="K6" t="n">
-        <v>34.3764058278685</v>
+        <v>224776.3052476416</v>
       </c>
       <c r="L6" t="n">
-        <v>224776.3052476416</v>
+        <v>3968.946904401851</v>
       </c>
       <c r="M6" t="n">
-        <v>3968.946904401851</v>
-      </c>
-      <c r="N6" t="n">
         <v>17.09231392392826</v>
       </c>
     </row>
@@ -762,38 +742,35 @@
       <c r="D7" t="n">
         <v>21</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H7" t="n">
-        <v>34658.327</v>
+        <v>17.78597102534896</v>
       </c>
       <c r="I7" t="n">
-        <v>17.78597102534896</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J7" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K7" t="n">
-        <v>34.53634613129312</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L7" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M7" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N7" t="n">
         <v>19.4795020452274</v>
       </c>
     </row>
@@ -810,38 +787,35 @@
       <c r="D8" t="n">
         <v>21</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H8" t="n">
-        <v>34658.327</v>
+        <v>17.34438430604422</v>
       </c>
       <c r="I8" t="n">
-        <v>17.34438430604422</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J8" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K8" t="n">
-        <v>34.53634613129312</v>
+        <v>250670.1019861927</v>
       </c>
       <c r="L8" t="n">
-        <v>250670.1019861927</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M8" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N8" t="n">
         <v>19.0026227955443</v>
       </c>
     </row>
@@ -858,38 +832,35 @@
       <c r="D9" t="n">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H9" t="n">
-        <v>34658.327</v>
+        <v>17.34438430604422</v>
       </c>
       <c r="I9" t="n">
-        <v>17.34438430604422</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80378809522657</v>
+        <v>32.96651221623434</v>
       </c>
       <c r="K9" t="n">
-        <v>32.96651221623434</v>
+        <v>250670.1019861927</v>
       </c>
       <c r="L9" t="n">
-        <v>250670.1019861927</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M9" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N9" t="n">
         <v>19.0026227955443</v>
       </c>
     </row>
@@ -906,38 +877,35 @@
       <c r="D10" t="n">
         <v>21</v>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H10" t="n">
-        <v>34658.327</v>
+        <v>17.34438430604422</v>
       </c>
       <c r="I10" t="n">
-        <v>17.34438430604422</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J10" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K10" t="n">
-        <v>34.53634613129312</v>
+        <v>250670.1019861927</v>
       </c>
       <c r="L10" t="n">
-        <v>250670.1019861927</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M10" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N10" t="n">
         <v>19.0026227955443</v>
       </c>
     </row>
@@ -954,38 +922,35 @@
       <c r="D11" t="n">
         <v>21</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SGX C1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SGX C1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>SGX1</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>34658.327</v>
+      </c>
       <c r="H11" t="n">
-        <v>34658.327</v>
+        <v>17.34438430604422</v>
       </c>
       <c r="I11" t="n">
-        <v>17.34438430604422</v>
+        <v>0.08080378809522656</v>
       </c>
       <c r="J11" t="n">
-        <v>80.80378809522657</v>
+        <v>34.53634613129312</v>
       </c>
       <c r="K11" t="n">
-        <v>34.53634613129312</v>
+        <v>250670.1019861927</v>
       </c>
       <c r="L11" t="n">
-        <v>250670.1019861927</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M11" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N11" t="n">
         <v>19.0026227955443</v>
       </c>
     </row>
@@ -1002,38 +967,35 @@
       <c r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H12" t="n">
-        <v>36789.357</v>
+        <v>16.75571551329558</v>
       </c>
       <c r="I12" t="n">
-        <v>16.75571551329558</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J12" t="n">
-        <v>76.12321440255313</v>
+        <v>34.16261329285311</v>
       </c>
       <c r="K12" t="n">
-        <v>34.16261329285311</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L12" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M12" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N12" t="n">
         <v>17.28815493566866</v>
       </c>
     </row>
@@ -1050,38 +1012,35 @@
       <c r="D13" t="n">
         <v>21</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H13" t="n">
-        <v>36789.357</v>
+        <v>16.75571551329558</v>
       </c>
       <c r="I13" t="n">
-        <v>16.75571551329558</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J13" t="n">
-        <v>76.12321440255313</v>
+        <v>32.53582218366963</v>
       </c>
       <c r="K13" t="n">
-        <v>32.53582218366963</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L13" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M13" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N13" t="n">
         <v>17.28815493566866</v>
       </c>
     </row>
@@ -1098,38 +1057,35 @@
       <c r="D14" t="n">
         <v>21</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H14" t="n">
-        <v>36789.357</v>
+        <v>15.22699229246827</v>
       </c>
       <c r="I14" t="n">
-        <v>15.22699229246827</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J14" t="n">
-        <v>92.99399707138423</v>
+        <v>39.74656320821067</v>
       </c>
       <c r="K14" t="n">
-        <v>39.74656320821067</v>
+        <v>233599.7535367711</v>
       </c>
       <c r="L14" t="n">
-        <v>233599.7535367711</v>
+        <v>4447.546164250942</v>
       </c>
       <c r="M14" t="n">
-        <v>4447.546164250942</v>
-      </c>
-      <c r="N14" t="n">
         <v>15.78638995943894</v>
       </c>
     </row>
@@ -1146,38 +1102,35 @@
       <c r="D15" t="n">
         <v>19</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H15" t="n">
-        <v>36789.357</v>
+        <v>16.75571551329558</v>
       </c>
       <c r="I15" t="n">
-        <v>16.75571551329558</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J15" t="n">
-        <v>76.12321440255313</v>
+        <v>35.96064557142432</v>
       </c>
       <c r="K15" t="n">
-        <v>35.96064557142432</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L15" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M15" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N15" t="n">
         <v>17.28815493566866</v>
       </c>
     </row>
@@ -1194,38 +1147,35 @@
       <c r="D16" t="n">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
-        <v>2</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H16" t="n">
-        <v>36789.357</v>
+        <v>16.75571551329558</v>
       </c>
       <c r="I16" t="n">
-        <v>16.75571551329558</v>
+        <v>0.08298693777956261</v>
       </c>
       <c r="J16" t="n">
-        <v>82.98693777956261</v>
+        <v>32.38514645056102</v>
       </c>
       <c r="K16" t="n">
-        <v>32.38514645056102</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L16" t="n">
-        <v>257052.143920382</v>
+        <v>3968.946904401851</v>
       </c>
       <c r="M16" t="n">
-        <v>3968.946904401851</v>
-      </c>
-      <c r="N16" t="n">
         <v>17.3099242569584</v>
       </c>
     </row>
@@ -1242,38 +1192,35 @@
       <c r="D17" t="n">
         <v>21</v>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H17" t="n">
-        <v>36789.357</v>
+        <v>16.75571551329558</v>
       </c>
       <c r="I17" t="n">
-        <v>16.75571551329558</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J17" t="n">
-        <v>76.12321440255313</v>
+        <v>32.53582218366963</v>
       </c>
       <c r="K17" t="n">
-        <v>32.53582218366963</v>
+        <v>257052.143920382</v>
       </c>
       <c r="L17" t="n">
-        <v>257052.143920382</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M17" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N17" t="n">
         <v>17.28815493566866</v>
       </c>
     </row>
@@ -1290,38 +1237,35 @@
       <c r="D18" t="n">
         <v>21</v>
       </c>
-      <c r="E18" t="n">
-        <v>2</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H18" t="n">
-        <v>36789.357</v>
+        <v>14.65184365871588</v>
       </c>
       <c r="I18" t="n">
-        <v>14.65184365871588</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J18" t="n">
-        <v>92.99399707138423</v>
+        <v>39.74656320821067</v>
       </c>
       <c r="K18" t="n">
-        <v>39.74656320821067</v>
+        <v>224776.3052476416</v>
       </c>
       <c r="L18" t="n">
-        <v>224776.3052476416</v>
+        <v>4447.546164250942</v>
       </c>
       <c r="M18" t="n">
-        <v>4447.546164250942</v>
-      </c>
-      <c r="N18" t="n">
         <v>15.2012524861129</v>
       </c>
     </row>
@@ -1338,38 +1282,35 @@
       <c r="D19" t="n">
         <v>22</v>
       </c>
-      <c r="E19" t="n">
-        <v>2</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H19" t="n">
-        <v>36789.357</v>
+        <v>14.65184365871588</v>
       </c>
       <c r="I19" t="n">
-        <v>14.65184365871588</v>
+        <v>0.08298693777956261</v>
       </c>
       <c r="J19" t="n">
-        <v>82.98693777956261</v>
+        <v>33.85719856195015</v>
       </c>
       <c r="K19" t="n">
-        <v>33.85719856195015</v>
+        <v>224776.3052476416</v>
       </c>
       <c r="L19" t="n">
-        <v>224776.3052476416</v>
+        <v>3968.946904401851</v>
       </c>
       <c r="M19" t="n">
-        <v>3968.946904401851</v>
-      </c>
-      <c r="N19" t="n">
         <v>15.16951360665589</v>
       </c>
     </row>
@@ -1386,38 +1327,35 @@
       <c r="D20" t="n">
         <v>21</v>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H20" t="n">
-        <v>36789.357</v>
+        <v>14.65184365871588</v>
       </c>
       <c r="I20" t="n">
-        <v>14.65184365871588</v>
+        <v>0.09299399707138423</v>
       </c>
       <c r="J20" t="n">
-        <v>92.99399707138423</v>
+        <v>39.74656320821067</v>
       </c>
       <c r="K20" t="n">
-        <v>39.74656320821067</v>
+        <v>224776.3052476416</v>
       </c>
       <c r="L20" t="n">
-        <v>224776.3052476416</v>
+        <v>4447.546164250942</v>
       </c>
       <c r="M20" t="n">
-        <v>4447.546164250942</v>
-      </c>
-      <c r="N20" t="n">
         <v>15.2012524861129</v>
       </c>
     </row>
@@ -1434,38 +1372,35 @@
       <c r="D21" t="n">
         <v>21</v>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SGX C2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SGX C2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
           <t>SGX2</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>36789.357</v>
+      </c>
       <c r="H21" t="n">
-        <v>36789.357</v>
+        <v>16.33970778267607</v>
       </c>
       <c r="I21" t="n">
-        <v>16.33970778267607</v>
+        <v>0.07612321440255314</v>
       </c>
       <c r="J21" t="n">
-        <v>76.12321440255313</v>
+        <v>32.53582218366963</v>
       </c>
       <c r="K21" t="n">
-        <v>32.53582218366963</v>
+        <v>250670.1019861927</v>
       </c>
       <c r="L21" t="n">
-        <v>250670.1019861927</v>
+        <v>3640.68134383599</v>
       </c>
       <c r="M21" t="n">
-        <v>3640.68134383599</v>
-      </c>
-      <c r="N21" t="n">
         <v>16.86492223007972</v>
       </c>
     </row>
@@ -1482,38 +1417,35 @@
       <c r="D22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
-        <v>3</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>10970</v>
+      </c>
       <c r="H22" t="n">
-        <v>10970</v>
+        <v>9.931716418174604</v>
       </c>
       <c r="I22" t="n">
-        <v>9.931716418174604</v>
+        <v>0.07666963619998307</v>
       </c>
       <c r="J22" t="n">
-        <v>76.66963619998307</v>
+        <v>34.40783673365094</v>
       </c>
       <c r="K22" t="n">
-        <v>34.40783673365094</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L22" t="n">
-        <v>45432.53743777554</v>
+        <v>1093.385681847959</v>
       </c>
       <c r="M22" t="n">
-        <v>1093.385681847959</v>
-      </c>
-      <c r="N22" t="n">
         <v>34.70129685451394</v>
       </c>
     </row>
@@ -1530,38 +1462,35 @@
       <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E23" t="n">
-        <v>3</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>10970</v>
+      </c>
       <c r="H23" t="n">
-        <v>10970</v>
+        <v>9.931716418174604</v>
       </c>
       <c r="I23" t="n">
-        <v>9.931716418174604</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J23" t="n">
-        <v>56.85409209262399</v>
+        <v>24.30000684098214</v>
       </c>
       <c r="K23" t="n">
-        <v>24.30000684098214</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L23" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M23" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N23" t="n">
         <v>34.4905278770152</v>
       </c>
     </row>
@@ -1578,38 +1507,35 @@
       <c r="D24" t="n">
         <v>21</v>
       </c>
-      <c r="E24" t="n">
-        <v>3</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>10970</v>
+      </c>
       <c r="H24" t="n">
-        <v>10970</v>
+        <v>9.931716418174604</v>
       </c>
       <c r="I24" t="n">
-        <v>9.931716418174604</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J24" t="n">
-        <v>56.85409209262399</v>
+        <v>24.30000684098214</v>
       </c>
       <c r="K24" t="n">
-        <v>24.30000684098214</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L24" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M24" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N24" t="n">
         <v>34.4905278770152</v>
       </c>
     </row>
@@ -1626,38 +1552,35 @@
       <c r="D25" t="n">
         <v>19</v>
       </c>
-      <c r="E25" t="n">
-        <v>3</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>10970</v>
+      </c>
       <c r="H25" t="n">
-        <v>10970</v>
+        <v>10.15596461808127</v>
       </c>
       <c r="I25" t="n">
-        <v>10.15596461808127</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J25" t="n">
-        <v>74.12037117565357</v>
+        <v>35.01450140261939</v>
       </c>
       <c r="K25" t="n">
-        <v>35.01450140261939</v>
+        <v>46458.35858576661</v>
       </c>
       <c r="L25" t="n">
-        <v>46458.35858576661</v>
+        <v>1057.030613335996</v>
       </c>
       <c r="M25" t="n">
-        <v>1057.030613335996</v>
-      </c>
-      <c r="N25" t="n">
         <v>35.43928879210958</v>
       </c>
     </row>
@@ -1674,38 +1597,35 @@
       <c r="D26" t="n">
         <v>23</v>
       </c>
-      <c r="E26" t="n">
-        <v>3</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G26" t="n">
+        <v>10970</v>
+      </c>
       <c r="H26" t="n">
-        <v>10970</v>
+        <v>9.877591343905491</v>
       </c>
       <c r="I26" t="n">
-        <v>9.877591343905491</v>
+        <v>0.05925293244532087</v>
       </c>
       <c r="J26" t="n">
-        <v>59.25293244532087</v>
+        <v>23.1230955884179</v>
       </c>
       <c r="K26" t="n">
-        <v>23.1230955884179</v>
+        <v>45184.94282678223</v>
       </c>
       <c r="L26" t="n">
-        <v>45184.94282678223</v>
+        <v>845.006069602721</v>
       </c>
       <c r="M26" t="n">
-        <v>845.006069602721</v>
-      </c>
-      <c r="N26" t="n">
         <v>34.33137515068151</v>
       </c>
     </row>
@@ -1722,38 +1642,35 @@
       <c r="D27" t="n">
         <v>21</v>
       </c>
-      <c r="E27" t="n">
-        <v>3</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>10970</v>
+      </c>
       <c r="H27" t="n">
-        <v>10970</v>
+        <v>10.15596461808127</v>
       </c>
       <c r="I27" t="n">
-        <v>10.15596461808127</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J27" t="n">
-        <v>74.12037117565357</v>
+        <v>31.67978698332231</v>
       </c>
       <c r="K27" t="n">
-        <v>31.67978698332231</v>
+        <v>46458.35858576661</v>
       </c>
       <c r="L27" t="n">
-        <v>46458.35858576661</v>
+        <v>1057.030613335996</v>
       </c>
       <c r="M27" t="n">
-        <v>1057.030613335996</v>
-      </c>
-      <c r="N27" t="n">
         <v>35.43928879210958</v>
       </c>
     </row>
@@ -1770,38 +1687,35 @@
       <c r="D28" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>3</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>10970</v>
+      </c>
       <c r="H28" t="n">
-        <v>10970</v>
+        <v>9.931716418174604</v>
       </c>
       <c r="I28" t="n">
-        <v>9.931716418174604</v>
+        <v>0.07666963619998307</v>
       </c>
       <c r="J28" t="n">
-        <v>76.66963619998307</v>
+        <v>32.7693683177628</v>
       </c>
       <c r="K28" t="n">
-        <v>32.7693683177628</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L28" t="n">
-        <v>45432.53743777554</v>
+        <v>1093.385681847959</v>
       </c>
       <c r="M28" t="n">
-        <v>1093.385681847959</v>
-      </c>
-      <c r="N28" t="n">
         <v>34.70129685451394</v>
       </c>
     </row>
@@ -1818,38 +1732,35 @@
       <c r="D29" t="n">
         <v>22</v>
       </c>
-      <c r="E29" t="n">
-        <v>3</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>10970</v>
+      </c>
       <c r="H29" t="n">
-        <v>10970</v>
+        <v>9.877591343905491</v>
       </c>
       <c r="I29" t="n">
-        <v>9.877591343905491</v>
+        <v>0.05925293244532087</v>
       </c>
       <c r="J29" t="n">
-        <v>59.25293244532087</v>
+        <v>24.17414538789144</v>
       </c>
       <c r="K29" t="n">
-        <v>24.17414538789144</v>
+        <v>45184.94282678223</v>
       </c>
       <c r="L29" t="n">
-        <v>45184.94282678223</v>
+        <v>845.006069602721</v>
       </c>
       <c r="M29" t="n">
-        <v>845.006069602721</v>
-      </c>
-      <c r="N29" t="n">
         <v>34.33137515068151</v>
       </c>
     </row>
@@ -1866,38 +1777,35 @@
       <c r="D30" t="n">
         <v>21</v>
       </c>
-      <c r="E30" t="n">
-        <v>3</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>10970</v>
+      </c>
       <c r="H30" t="n">
-        <v>10970</v>
+        <v>10.15596461808127</v>
       </c>
       <c r="I30" t="n">
-        <v>10.15596461808127</v>
+        <v>0.07412037117565358</v>
       </c>
       <c r="J30" t="n">
-        <v>74.12037117565357</v>
+        <v>31.67978698332231</v>
       </c>
       <c r="K30" t="n">
-        <v>31.67978698332231</v>
+        <v>46458.35858576661</v>
       </c>
       <c r="L30" t="n">
-        <v>46458.35858576661</v>
+        <v>1057.030613335996</v>
       </c>
       <c r="M30" t="n">
-        <v>1057.030613335996</v>
-      </c>
-      <c r="N30" t="n">
         <v>35.43928879210958</v>
       </c>
     </row>
@@ -1914,38 +1822,35 @@
       <c r="D31" t="n">
         <v>21</v>
       </c>
-      <c r="E31" t="n">
-        <v>3</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TP1 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TP1 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
           <t>TP1</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>10970</v>
+      </c>
       <c r="H31" t="n">
-        <v>10970</v>
+        <v>9.931716418174604</v>
       </c>
       <c r="I31" t="n">
-        <v>9.931716418174604</v>
+        <v>0.05685409209262399</v>
       </c>
       <c r="J31" t="n">
-        <v>56.85409209262399</v>
+        <v>24.30000684098214</v>
       </c>
       <c r="K31" t="n">
-        <v>24.30000684098214</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L31" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M31" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N31" t="n">
         <v>34.4905278770152</v>
       </c>
     </row>
@@ -1962,38 +1867,35 @@
       <c r="D32" t="n">
         <v>20</v>
       </c>
-      <c r="E32" t="n">
-        <v>4</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>10965</v>
+      </c>
       <c r="H32" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I32" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J32" t="n">
-        <v>56.88001735121616</v>
+        <v>25.52664193322871</v>
       </c>
       <c r="K32" t="n">
-        <v>25.52664193322871</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L32" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M32" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N32" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2010,38 +1912,35 @@
       <c r="D33" t="n">
         <v>21</v>
       </c>
-      <c r="E33" t="n">
-        <v>4</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>10965</v>
+      </c>
       <c r="H33" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I33" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J33" t="n">
-        <v>56.88001735121616</v>
+        <v>24.31108755545592</v>
       </c>
       <c r="K33" t="n">
-        <v>24.31108755545592</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L33" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M33" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N33" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2058,38 +1957,35 @@
       <c r="D34" t="n">
         <v>21</v>
       </c>
-      <c r="E34" t="n">
-        <v>4</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>10965</v>
+      </c>
       <c r="H34" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I34" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J34" t="n">
-        <v>56.88001735121616</v>
+        <v>24.31108755545592</v>
       </c>
       <c r="K34" t="n">
-        <v>24.31108755545592</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L34" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M34" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N34" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2106,38 +2002,35 @@
       <c r="D35" t="n">
         <v>19</v>
       </c>
-      <c r="E35" t="n">
-        <v>4</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>10965</v>
+      </c>
       <c r="H35" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I35" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J35" t="n">
-        <v>56.88001735121616</v>
+        <v>26.87014940339865</v>
       </c>
       <c r="K35" t="n">
-        <v>26.87014940339865</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L35" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M35" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N35" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2154,38 +2047,35 @@
       <c r="D36" t="n">
         <v>23</v>
       </c>
-      <c r="E36" t="n">
-        <v>4</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>10965</v>
+      </c>
       <c r="H36" t="n">
-        <v>10965</v>
+        <v>9.882095489525147</v>
       </c>
       <c r="I36" t="n">
-        <v>9.882095489525147</v>
+        <v>0.05927995156636297</v>
       </c>
       <c r="J36" t="n">
-        <v>59.27995156636297</v>
+        <v>23.13363963565384</v>
       </c>
       <c r="K36" t="n">
-        <v>23.13363963565384</v>
+        <v>45184.94282678223</v>
       </c>
       <c r="L36" t="n">
-        <v>45184.94282678223</v>
+        <v>845.006069602721</v>
       </c>
       <c r="M36" t="n">
-        <v>845.006069602721</v>
-      </c>
-      <c r="N36" t="n">
         <v>34.36269225295383</v>
       </c>
     </row>
@@ -2202,38 +2092,35 @@
       <c r="D37" t="n">
         <v>21</v>
       </c>
-      <c r="E37" t="n">
-        <v>4</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>10965</v>
+      </c>
       <c r="H37" t="n">
-        <v>10965</v>
+        <v>10.16059570089846</v>
       </c>
       <c r="I37" t="n">
-        <v>10.16059570089846</v>
+        <v>0.07415416979452072</v>
       </c>
       <c r="J37" t="n">
-        <v>74.15416979452073</v>
+        <v>31.69423285061977</v>
       </c>
       <c r="K37" t="n">
-        <v>31.69423285061977</v>
+        <v>46458.35858576661</v>
       </c>
       <c r="L37" t="n">
-        <v>46458.35858576661</v>
+        <v>1057.030613335996</v>
       </c>
       <c r="M37" t="n">
-        <v>1057.030613335996</v>
-      </c>
-      <c r="N37" t="n">
         <v>35.47161653391105</v>
       </c>
     </row>
@@ -2250,38 +2137,35 @@
       <c r="D38" t="n">
         <v>21</v>
       </c>
-      <c r="E38" t="n">
-        <v>4</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>10965</v>
+      </c>
       <c r="H38" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I38" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J38" t="n">
-        <v>56.88001735121616</v>
+        <v>24.31108755545592</v>
       </c>
       <c r="K38" t="n">
-        <v>24.31108755545592</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L38" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M38" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N38" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2298,38 +2182,35 @@
       <c r="D39" t="n">
         <v>22</v>
       </c>
-      <c r="E39" t="n">
-        <v>4</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>10965</v>
+      </c>
       <c r="H39" t="n">
-        <v>10965</v>
+        <v>9.882095489525147</v>
       </c>
       <c r="I39" t="n">
-        <v>9.882095489525147</v>
+        <v>0.05927995156636297</v>
       </c>
       <c r="J39" t="n">
-        <v>59.27995156636297</v>
+        <v>24.18516871000174</v>
       </c>
       <c r="K39" t="n">
-        <v>24.18516871000174</v>
+        <v>45184.94282678223</v>
       </c>
       <c r="L39" t="n">
-        <v>45184.94282678223</v>
+        <v>845.006069602721</v>
       </c>
       <c r="M39" t="n">
-        <v>845.006069602721</v>
-      </c>
-      <c r="N39" t="n">
         <v>34.36269225295383</v>
       </c>
     </row>
@@ -2346,38 +2227,35 @@
       <c r="D40" t="n">
         <v>21</v>
       </c>
-      <c r="E40" t="n">
-        <v>4</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>10965</v>
+      </c>
       <c r="H40" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I40" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J40" t="n">
-        <v>56.88001735121616</v>
+        <v>24.31108755545592</v>
       </c>
       <c r="K40" t="n">
-        <v>24.31108755545592</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L40" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M40" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N40" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2394,38 +2272,35 @@
       <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E41" t="n">
-        <v>4</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TP2 Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TP2 Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
           <t>TP2</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>10965</v>
+      </c>
       <c r="H41" t="n">
-        <v>10965</v>
+        <v>9.93624524463068</v>
       </c>
       <c r="I41" t="n">
-        <v>9.93624524463068</v>
+        <v>0.05688001735121616</v>
       </c>
       <c r="J41" t="n">
-        <v>56.88001735121616</v>
+        <v>24.31108755545592</v>
       </c>
       <c r="K41" t="n">
-        <v>24.31108755545592</v>
+        <v>45432.53743777554</v>
       </c>
       <c r="L41" t="n">
-        <v>45432.53743777554</v>
+        <v>810.7962073329107</v>
       </c>
       <c r="M41" t="n">
-        <v>810.7962073329107</v>
-      </c>
-      <c r="N41" t="n">
         <v>34.52199015850582</v>
       </c>
     </row>
@@ -2442,38 +2317,35 @@
       <c r="D42" t="n">
         <v>20</v>
       </c>
-      <c r="E42" t="n">
-        <v>5</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>7264</v>
+      </c>
       <c r="H42" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I42" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J42" t="n">
-        <v>372.9832716148161</v>
+        <v>167.3876145783565</v>
       </c>
       <c r="K42" t="n">
-        <v>167.3876145783565</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L42" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M42" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N42" t="n">
         <v>244.8715037982228</v>
       </c>
     </row>
@@ -2490,38 +2362,35 @@
       <c r="D43" t="n">
         <v>21</v>
       </c>
-      <c r="E43" t="n">
-        <v>5</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>7264</v>
+      </c>
       <c r="H43" t="n">
-        <v>7264</v>
+        <v>48.51853421393094</v>
       </c>
       <c r="I43" t="n">
-        <v>48.51853421393094</v>
+        <v>0.4224513763365305</v>
       </c>
       <c r="J43" t="n">
-        <v>422.4513763365304</v>
+        <v>180.5599378534764</v>
       </c>
       <c r="K43" t="n">
-        <v>180.5599378534764</v>
+        <v>146966.9097650076</v>
       </c>
       <c r="L43" t="n">
-        <v>146966.9097650076</v>
+        <v>3989.292837021124</v>
       </c>
       <c r="M43" t="n">
-        <v>3989.292837021124</v>
-      </c>
-      <c r="N43" t="n">
         <v>256.7812172549016</v>
       </c>
     </row>
@@ -2538,38 +2407,35 @@
       <c r="D44" t="n">
         <v>21</v>
       </c>
-      <c r="E44" t="n">
-        <v>5</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>7264</v>
+      </c>
       <c r="H44" t="n">
-        <v>7264</v>
+        <v>48.51853421393094</v>
       </c>
       <c r="I44" t="n">
-        <v>48.51853421393094</v>
+        <v>0.4224513763365305</v>
       </c>
       <c r="J44" t="n">
-        <v>422.4513763365304</v>
+        <v>180.5599378534764</v>
       </c>
       <c r="K44" t="n">
-        <v>180.5599378534764</v>
+        <v>146966.9097650076</v>
       </c>
       <c r="L44" t="n">
-        <v>146966.9097650076</v>
+        <v>3989.292837021124</v>
       </c>
       <c r="M44" t="n">
-        <v>3989.292837021124</v>
-      </c>
-      <c r="N44" t="n">
         <v>256.7812172549016</v>
       </c>
     </row>
@@ -2586,38 +2452,35 @@
       <c r="D45" t="n">
         <v>19</v>
       </c>
-      <c r="E45" t="n">
-        <v>5</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>7264</v>
+      </c>
       <c r="H45" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I45" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J45" t="n">
-        <v>372.9832716148161</v>
+        <v>176.197489029849</v>
       </c>
       <c r="K45" t="n">
-        <v>176.197489029849</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L45" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M45" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N45" t="n">
         <v>244.8715037982228</v>
       </c>
     </row>
@@ -2634,38 +2497,35 @@
       <c r="D46" t="n">
         <v>23</v>
       </c>
-      <c r="E46" t="n">
-        <v>5</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>7264</v>
+      </c>
       <c r="H46" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I46" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J46" t="n">
-        <v>372.9832716148161</v>
+        <v>145.5544474594404</v>
       </c>
       <c r="K46" t="n">
-        <v>145.5544474594404</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L46" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M46" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N46" t="n">
         <v>244.8715037982228</v>
       </c>
     </row>
@@ -2682,38 +2542,35 @@
       <c r="D47" t="n">
         <v>21</v>
       </c>
-      <c r="E47" t="n">
-        <v>5</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>7264</v>
+      </c>
       <c r="H47" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I47" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3729832716148162</v>
       </c>
       <c r="J47" t="n">
-        <v>372.9832716148161</v>
+        <v>159.416775788911</v>
       </c>
       <c r="K47" t="n">
-        <v>159.416775788911</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L47" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M47" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N47" t="n">
         <v>244.8715037982228</v>
       </c>
     </row>
@@ -2730,38 +2587,35 @@
       <c r="D48" t="n">
         <v>21</v>
       </c>
-      <c r="E48" t="n">
-        <v>5</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>7264</v>
+      </c>
       <c r="H48" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I48" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J48" t="n">
-        <v>399.0705802432965</v>
+        <v>170.5667520668213</v>
       </c>
       <c r="K48" t="n">
-        <v>170.5667520668213</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L48" t="n">
-        <v>140432.5803661377</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M48" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N48" t="n">
         <v>245.2905488868612</v>
       </c>
     </row>
@@ -2778,38 +2632,35 @@
       <c r="D49" t="n">
         <v>22</v>
       </c>
-      <c r="E49" t="n">
-        <v>5</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>7264</v>
+      </c>
       <c r="H49" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I49" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J49" t="n">
-        <v>399.0705802432965</v>
+        <v>162.8137178819658</v>
       </c>
       <c r="K49" t="n">
-        <v>162.8137178819658</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L49" t="n">
-        <v>140432.5803661377</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M49" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N49" t="n">
         <v>245.2905488868612</v>
       </c>
     </row>
@@ -2826,38 +2677,35 @@
       <c r="D50" t="n">
         <v>21</v>
       </c>
-      <c r="E50" t="n">
-        <v>5</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G50" t="n">
+        <v>7264</v>
+      </c>
       <c r="H50" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I50" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J50" t="n">
-        <v>399.0705802432965</v>
+        <v>170.5667520668213</v>
       </c>
       <c r="K50" t="n">
-        <v>170.5667520668213</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L50" t="n">
-        <v>140432.5803661377</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M50" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N50" t="n">
         <v>245.2905488868612</v>
       </c>
     </row>
@@ -2874,38 +2722,35 @@
       <c r="D51" t="n">
         <v>21</v>
       </c>
-      <c r="E51" t="n">
-        <v>5</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>SC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
           <t>SC</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>7264</v>
+      </c>
       <c r="H51" t="n">
-        <v>7264</v>
+        <v>46.36134056393795</v>
       </c>
       <c r="I51" t="n">
-        <v>46.36134056393795</v>
+        <v>0.3990705802432966</v>
       </c>
       <c r="J51" t="n">
-        <v>399.0705802432965</v>
+        <v>170.5667520668213</v>
       </c>
       <c r="K51" t="n">
-        <v>170.5667520668213</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L51" t="n">
-        <v>140432.5803661377</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M51" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N51" t="n">
         <v>245.2905488868612</v>
       </c>
     </row>
@@ -2922,38 +2767,35 @@
       <c r="D52" t="n">
         <v>22</v>
       </c>
-      <c r="E52" t="n">
-        <v>6</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>74215</v>
+      </c>
       <c r="H52" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I52" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J52" t="n">
-        <v>36.50677740362494</v>
+        <v>14.89411761034809</v>
       </c>
       <c r="K52" t="n">
-        <v>14.89411761034809</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L52" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M52" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N52" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -2970,38 +2812,35 @@
       <c r="D53" t="n">
         <v>20</v>
       </c>
-      <c r="E53" t="n">
-        <v>6</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>74215</v>
+      </c>
       <c r="H53" t="n">
-        <v>74215</v>
+        <v>4.74888678205207</v>
       </c>
       <c r="I53" t="n">
-        <v>4.74888678205207</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J53" t="n">
-        <v>36.50677740362494</v>
+        <v>16.3835293713829</v>
       </c>
       <c r="K53" t="n">
-        <v>16.3835293713829</v>
+        <v>146966.9097650076</v>
       </c>
       <c r="L53" t="n">
-        <v>146966.9097650076</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M53" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N53" t="n">
         <v>2.452367338587711</v>
       </c>
     </row>
@@ -3018,38 +2857,35 @@
       <c r="D54" t="n">
         <v>20</v>
       </c>
-      <c r="E54" t="n">
-        <v>6</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>74215</v>
+      </c>
       <c r="H54" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I54" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J54" t="n">
-        <v>36.50677740362494</v>
+        <v>16.3835293713829</v>
       </c>
       <c r="K54" t="n">
-        <v>16.3835293713829</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L54" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M54" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N54" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -3066,38 +2902,35 @@
       <c r="D55" t="n">
         <v>21</v>
       </c>
-      <c r="E55" t="n">
-        <v>6</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>74215</v>
+      </c>
       <c r="H55" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I55" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J55" t="n">
-        <v>36.50677740362494</v>
+        <v>15.60336130607895</v>
       </c>
       <c r="K55" t="n">
-        <v>15.60336130607895</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L55" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M55" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N55" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -3114,38 +2947,35 @@
       <c r="D56" t="n">
         <v>21</v>
       </c>
-      <c r="E56" t="n">
-        <v>6</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>74215</v>
+      </c>
       <c r="H56" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I56" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J56" t="n">
-        <v>36.50677740362494</v>
+        <v>15.60336130607895</v>
       </c>
       <c r="K56" t="n">
-        <v>15.60336130607895</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L56" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M56" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N56" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -3162,38 +2992,35 @@
       <c r="D57" t="n">
         <v>19</v>
       </c>
-      <c r="E57" t="n">
-        <v>6</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>74215</v>
+      </c>
       <c r="H57" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I57" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J57" t="n">
-        <v>36.50677740362494</v>
+        <v>17.24582039092937</v>
       </c>
       <c r="K57" t="n">
-        <v>17.24582039092937</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L57" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M57" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N57" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -3210,38 +3037,35 @@
       <c r="D58" t="n">
         <v>23</v>
       </c>
-      <c r="E58" t="n">
-        <v>6</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>74215</v>
+      </c>
       <c r="H58" t="n">
-        <v>74215</v>
+        <v>4.671041653199079</v>
       </c>
       <c r="I58" t="n">
-        <v>4.671041653199079</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J58" t="n">
-        <v>42.60904058996427</v>
+        <v>16.62791827901045</v>
       </c>
       <c r="K58" t="n">
-        <v>16.62791827901045</v>
+        <v>144557.7855738348</v>
       </c>
       <c r="L58" t="n">
-        <v>144557.7855738348</v>
+        <v>4110.898931599459</v>
       </c>
       <c r="M58" t="n">
-        <v>4110.898931599459</v>
-      </c>
-      <c r="N58" t="n">
         <v>2.42270244149433</v>
       </c>
     </row>
@@ -3258,38 +3082,35 @@
       <c r="D59" t="n">
         <v>21</v>
       </c>
-      <c r="E59" t="n">
-        <v>6</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v>74215</v>
+      </c>
       <c r="H59" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I59" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03650677740362494</v>
       </c>
       <c r="J59" t="n">
-        <v>36.50677740362494</v>
+        <v>15.60336130607895</v>
       </c>
       <c r="K59" t="n">
-        <v>15.60336130607895</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L59" t="n">
-        <v>140432.5803661377</v>
+        <v>3522.155630513033</v>
       </c>
       <c r="M59" t="n">
-        <v>3522.155630513033</v>
-      </c>
-      <c r="N59" t="n">
         <v>2.345884014000335</v>
       </c>
     </row>
@@ -3306,38 +3127,35 @@
       <c r="D60" t="n">
         <v>21</v>
       </c>
-      <c r="E60" t="n">
-        <v>6</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>74215</v>
+      </c>
       <c r="H60" t="n">
-        <v>74215</v>
+        <v>4.537745440361723</v>
       </c>
       <c r="I60" t="n">
-        <v>4.537745440361723</v>
+        <v>0.03906014545425192</v>
       </c>
       <c r="J60" t="n">
-        <v>39.06014545425192</v>
+        <v>16.69469631494159</v>
       </c>
       <c r="K60" t="n">
-        <v>16.69469631494159</v>
+        <v>140432.5803661377</v>
       </c>
       <c r="L60" t="n">
-        <v>140432.5803661377</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M60" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N60" t="n">
         <v>2.349898491631804</v>
       </c>
     </row>
@@ -3354,38 +3172,35 @@
       <c r="D61" t="n">
         <v>22</v>
       </c>
-      <c r="E61" t="n">
-        <v>6</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>74215</v>
+      </c>
       <c r="H61" t="n">
-        <v>74215</v>
+        <v>4.671041653199079</v>
       </c>
       <c r="I61" t="n">
-        <v>4.671041653199079</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J61" t="n">
-        <v>42.60904058996427</v>
+        <v>17.3837327462382</v>
       </c>
       <c r="K61" t="n">
-        <v>17.3837327462382</v>
+        <v>144557.7855738348</v>
       </c>
       <c r="L61" t="n">
-        <v>144557.7855738348</v>
+        <v>4110.898931599459</v>
       </c>
       <c r="M61" t="n">
-        <v>4110.898931599459</v>
-      </c>
-      <c r="N61" t="n">
         <v>2.42270244149433</v>
       </c>
     </row>
@@ -3402,38 +3217,35 @@
       <c r="D62" t="n">
         <v>21</v>
       </c>
-      <c r="E62" t="n">
-        <v>6</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>74215</v>
+      </c>
       <c r="H62" t="n">
-        <v>74215</v>
+        <v>4.74888678205207</v>
       </c>
       <c r="I62" t="n">
-        <v>4.74888678205207</v>
+        <v>0.04260904058996427</v>
       </c>
       <c r="J62" t="n">
-        <v>42.60904058996427</v>
+        <v>18.21152954367811</v>
       </c>
       <c r="K62" t="n">
-        <v>18.21152954367811</v>
+        <v>146966.9097650076</v>
       </c>
       <c r="L62" t="n">
-        <v>146966.9097650076</v>
+        <v>4110.898931599459</v>
       </c>
       <c r="M62" t="n">
-        <v>4110.898931599459</v>
-      </c>
-      <c r="N62" t="n">
         <v>2.461961489754787</v>
       </c>
     </row>
@@ -3450,38 +3262,35 @@
       <c r="D63" t="n">
         <v>21</v>
       </c>
-      <c r="E63" t="n">
-        <v>6</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SLT Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SLT Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
           <t>SLT</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>74215</v>
+      </c>
       <c r="H63" t="n">
-        <v>74215</v>
+        <v>4.74888678205207</v>
       </c>
       <c r="I63" t="n">
-        <v>4.74888678205207</v>
+        <v>0.03906014545425192</v>
       </c>
       <c r="J63" t="n">
-        <v>39.06014545425192</v>
+        <v>16.69469631494159</v>
       </c>
       <c r="K63" t="n">
-        <v>16.69469631494159</v>
+        <v>146966.9097650076</v>
       </c>
       <c r="L63" t="n">
-        <v>146966.9097650076</v>
+        <v>3768.503303353498</v>
       </c>
       <c r="M63" t="n">
-        <v>3768.503303353498</v>
-      </c>
-      <c r="N63" t="n">
         <v>2.45638181621918</v>
       </c>
     </row>
@@ -3498,38 +3307,35 @@
       <c r="D64" t="n">
         <v>22</v>
       </c>
-      <c r="E64" t="n">
-        <v>7</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>67896</v>
+      </c>
       <c r="H64" t="n">
-        <v>67896</v>
+        <v>11.64915007052664</v>
       </c>
       <c r="I64" t="n">
-        <v>11.64915007052664</v>
+        <v>0.06986640126928222</v>
       </c>
       <c r="J64" t="n">
-        <v>69.86640126928222</v>
+        <v>28.50425240254529</v>
       </c>
       <c r="K64" t="n">
-        <v>28.50425240254529</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L64" t="n">
-        <v>329818.0990595947</v>
+        <v>6166.743934752942</v>
       </c>
       <c r="M64" t="n">
-        <v>6166.743934752942</v>
-      </c>
-      <c r="N64" t="n">
         <v>6.541769979588437</v>
       </c>
     </row>
@@ -3546,38 +3352,35 @@
       <c r="D65" t="n">
         <v>20</v>
       </c>
-      <c r="E65" t="n">
-        <v>7</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>67896</v>
+      </c>
       <c r="H65" t="n">
-        <v>67896</v>
+        <v>11.11244186155901</v>
       </c>
       <c r="I65" t="n">
-        <v>11.11244186155901</v>
+        <v>0.07703733040774628</v>
       </c>
       <c r="J65" t="n">
-        <v>77.03733040774628</v>
+        <v>34.57285071957394</v>
       </c>
       <c r="K65" t="n">
-        <v>34.57285071957394</v>
+        <v>314622.4770477152</v>
       </c>
       <c r="L65" t="n">
-        <v>314622.4770477152</v>
+        <v>6799.684560973644</v>
       </c>
       <c r="M65" t="n">
-        <v>6799.684560973644</v>
-      </c>
-      <c r="N65" t="n">
         <v>6.258228284486981</v>
       </c>
     </row>
@@ -3594,38 +3397,35 @@
       <c r="D66" t="n">
         <v>20</v>
       </c>
-      <c r="E66" t="n">
-        <v>7</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G66" t="n">
+        <v>67896</v>
+      </c>
       <c r="H66" t="n">
-        <v>67896</v>
+        <v>11.64915007052664</v>
       </c>
       <c r="I66" t="n">
-        <v>11.64915007052664</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J66" t="n">
-        <v>71.35792507321507</v>
+        <v>32.02404442310139</v>
       </c>
       <c r="K66" t="n">
-        <v>32.02404442310139</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L66" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M66" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N66" t="n">
         <v>6.544333243446078</v>
       </c>
     </row>
@@ -3642,38 +3442,35 @@
       <c r="D67" t="n">
         <v>21</v>
       </c>
-      <c r="E67" t="n">
-        <v>7</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G67" t="n">
+        <v>67896</v>
+      </c>
       <c r="H67" t="n">
-        <v>67896</v>
+        <v>11.64915007052664</v>
       </c>
       <c r="I67" t="n">
-        <v>11.64915007052664</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J67" t="n">
-        <v>71.35792507321507</v>
+        <v>30.49908992676323</v>
       </c>
       <c r="K67" t="n">
-        <v>30.49908992676323</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L67" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M67" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N67" t="n">
         <v>6.544333243446078</v>
       </c>
     </row>
@@ -3690,38 +3487,35 @@
       <c r="D68" t="n">
         <v>21</v>
       </c>
-      <c r="E68" t="n">
-        <v>7</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>67896</v>
+      </c>
       <c r="H68" t="n">
-        <v>67896</v>
+        <v>11.64915007052664</v>
       </c>
       <c r="I68" t="n">
-        <v>11.64915007052664</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J68" t="n">
-        <v>71.35792507321507</v>
+        <v>30.49908992676323</v>
       </c>
       <c r="K68" t="n">
-        <v>30.49908992676323</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L68" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M68" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N68" t="n">
         <v>6.544333243446078</v>
       </c>
     </row>
@@ -3738,38 +3532,35 @@
       <c r="D69" t="n">
         <v>19</v>
       </c>
-      <c r="E69" t="n">
-        <v>7</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G69" t="n">
+        <v>67896</v>
+      </c>
       <c r="H69" t="n">
-        <v>67896</v>
+        <v>11.11244186155901</v>
       </c>
       <c r="I69" t="n">
-        <v>11.11244186155901</v>
+        <v>0.07703733040774628</v>
       </c>
       <c r="J69" t="n">
-        <v>77.03733040774628</v>
+        <v>36.39247444165678</v>
       </c>
       <c r="K69" t="n">
-        <v>36.39247444165678</v>
+        <v>314622.4770477152</v>
       </c>
       <c r="L69" t="n">
-        <v>314622.4770477152</v>
+        <v>6799.684560973644</v>
       </c>
       <c r="M69" t="n">
-        <v>6799.684560973644</v>
-      </c>
-      <c r="N69" t="n">
         <v>6.258228284486981</v>
       </c>
     </row>
@@ -3786,38 +3577,35 @@
       <c r="D70" t="n">
         <v>23</v>
       </c>
-      <c r="E70" t="n">
-        <v>7</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>67896</v>
+      </c>
       <c r="H70" t="n">
-        <v>67896</v>
+        <v>11.38164588328623</v>
       </c>
       <c r="I70" t="n">
-        <v>11.38164588328623</v>
+        <v>0.07738688075944168</v>
       </c>
       <c r="J70" t="n">
-        <v>77.38688075944167</v>
+        <v>30.19975834514796</v>
       </c>
       <c r="K70" t="n">
-        <v>30.19975834514796</v>
+        <v>322244.3514477978</v>
       </c>
       <c r="L70" t="n">
-        <v>322244.3514477978</v>
+        <v>6830.537552855968</v>
       </c>
       <c r="M70" t="n">
-        <v>6830.537552855968</v>
-      </c>
-      <c r="N70" t="n">
         <v>6.407230191443757</v>
       </c>
     </row>
@@ -3834,38 +3622,35 @@
       <c r="D71" t="n">
         <v>21</v>
       </c>
-      <c r="E71" t="n">
-        <v>7</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G71" t="n">
+        <v>67896</v>
+      </c>
       <c r="H71" t="n">
-        <v>67896</v>
+        <v>11.34056851896906</v>
       </c>
       <c r="I71" t="n">
-        <v>11.34056851896906</v>
+        <v>0.07738688075944168</v>
       </c>
       <c r="J71" t="n">
-        <v>77.38688075944167</v>
+        <v>33.07592580659063</v>
       </c>
       <c r="K71" t="n">
-        <v>33.07592580659063</v>
+        <v>321081.3431483559</v>
       </c>
       <c r="L71" t="n">
-        <v>321081.3431483559</v>
+        <v>6830.537552855968</v>
       </c>
       <c r="M71" t="n">
-        <v>6830.537552855968</v>
-      </c>
-      <c r="N71" t="n">
         <v>6.384585917638138</v>
       </c>
     </row>
@@ -3882,38 +3667,35 @@
       <c r="D72" t="n">
         <v>21</v>
       </c>
-      <c r="E72" t="n">
-        <v>7</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G72" t="n">
+        <v>67896</v>
+      </c>
       <c r="H72" t="n">
-        <v>67896</v>
+        <v>11.68738496549205</v>
       </c>
       <c r="I72" t="n">
-        <v>11.68738496549205</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J72" t="n">
-        <v>71.35792507321507</v>
+        <v>30.49908992676323</v>
       </c>
       <c r="K72" t="n">
-        <v>30.49908992676323</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L72" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M72" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N72" t="n">
         <v>6.565410579952888</v>
       </c>
     </row>
@@ -3930,38 +3712,35 @@
       <c r="D73" t="n">
         <v>22</v>
       </c>
-      <c r="E73" t="n">
-        <v>7</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G73" t="n">
+        <v>67896</v>
+      </c>
       <c r="H73" t="n">
-        <v>67896</v>
+        <v>11.72846232980922</v>
       </c>
       <c r="I73" t="n">
-        <v>11.72846232980922</v>
+        <v>0.06986640126928222</v>
       </c>
       <c r="J73" t="n">
-        <v>69.86640126928222</v>
+        <v>28.50425240254529</v>
       </c>
       <c r="K73" t="n">
-        <v>28.50425240254529</v>
+        <v>332063.637869751</v>
       </c>
       <c r="L73" t="n">
-        <v>332063.637869751</v>
+        <v>6166.743934752942</v>
       </c>
       <c r="M73" t="n">
-        <v>6166.743934752942</v>
-      </c>
-      <c r="N73" t="n">
         <v>6.585491589900865</v>
       </c>
     </row>
@@ -3978,38 +3757,35 @@
       <c r="D74" t="n">
         <v>21</v>
       </c>
-      <c r="E74" t="n">
-        <v>7</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>67896</v>
+      </c>
       <c r="H74" t="n">
-        <v>67896</v>
+        <v>11.68738496549205</v>
       </c>
       <c r="I74" t="n">
-        <v>11.68738496549205</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J74" t="n">
-        <v>71.35792507321507</v>
+        <v>30.49908992676323</v>
       </c>
       <c r="K74" t="n">
-        <v>30.49908992676323</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L74" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M74" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N74" t="n">
         <v>6.565410579952888</v>
       </c>
     </row>
@@ -4026,38 +3802,35 @@
       <c r="D75" t="n">
         <v>21</v>
       </c>
-      <c r="E75" t="n">
-        <v>7</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UIC Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>UIC Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
           <t>UIC</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>67896</v>
+      </c>
       <c r="H75" t="n">
-        <v>67896</v>
+        <v>11.68738496549205</v>
       </c>
       <c r="I75" t="n">
-        <v>11.68738496549205</v>
+        <v>0.07135792507321508</v>
       </c>
       <c r="J75" t="n">
-        <v>71.35792507321507</v>
+        <v>30.49908992676323</v>
       </c>
       <c r="K75" t="n">
-        <v>30.49908992676323</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L75" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M75" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N75" t="n">
         <v>6.565410579952888</v>
       </c>
     </row>
@@ -4074,38 +3847,35 @@
       <c r="D76" t="n">
         <v>20</v>
       </c>
-      <c r="E76" t="n">
-        <v>8</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G76" t="n">
+        <v>105307</v>
+      </c>
       <c r="H76" t="n">
-        <v>105307</v>
+        <v>7.510713373170602</v>
       </c>
       <c r="I76" t="n">
-        <v>7.510713373170602</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J76" t="n">
-        <v>46.00755582032544</v>
+        <v>20.64729334375581</v>
       </c>
       <c r="K76" t="n">
-        <v>20.64729334375581</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L76" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M76" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N76" t="n">
         <v>2.720440945596954</v>
       </c>
     </row>
@@ -4122,38 +3892,35 @@
       <c r="D77" t="n">
         <v>21</v>
       </c>
-      <c r="E77" t="n">
-        <v>8</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G77" t="n">
+        <v>105307</v>
+      </c>
       <c r="H77" t="n">
-        <v>105307</v>
+        <v>7.510713373170602</v>
       </c>
       <c r="I77" t="n">
-        <v>7.510713373170602</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J77" t="n">
-        <v>46.00755582032544</v>
+        <v>19.66408889881505</v>
       </c>
       <c r="K77" t="n">
-        <v>19.66408889881505</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L77" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M77" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N77" t="n">
         <v>2.720440945596954</v>
       </c>
     </row>
@@ -4170,38 +3937,35 @@
       <c r="D78" t="n">
         <v>21</v>
       </c>
-      <c r="E78" t="n">
-        <v>8</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>105307</v>
+      </c>
       <c r="H78" t="n">
-        <v>105307</v>
+        <v>7.510713373170602</v>
       </c>
       <c r="I78" t="n">
-        <v>7.510713373170602</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J78" t="n">
-        <v>46.00755582032544</v>
+        <v>19.66408889881505</v>
       </c>
       <c r="K78" t="n">
-        <v>19.66408889881505</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L78" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M78" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N78" t="n">
         <v>2.720440945596954</v>
       </c>
     </row>
@@ -4218,38 +3982,35 @@
       <c r="D79" t="n">
         <v>19</v>
       </c>
-      <c r="E79" t="n">
-        <v>8</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>105307</v>
+      </c>
       <c r="H79" t="n">
-        <v>105307</v>
+        <v>7.510713373170602</v>
       </c>
       <c r="I79" t="n">
-        <v>7.510713373170602</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J79" t="n">
-        <v>46.00755582032544</v>
+        <v>21.73399299342717</v>
       </c>
       <c r="K79" t="n">
-        <v>21.73399299342717</v>
+        <v>329818.0990595947</v>
       </c>
       <c r="L79" t="n">
-        <v>329818.0990595947</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M79" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N79" t="n">
         <v>2.720440945596954</v>
       </c>
     </row>
@@ -4266,38 +4027,35 @@
       <c r="D80" t="n">
         <v>23</v>
       </c>
-      <c r="E80" t="n">
-        <v>8</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>105307</v>
+      </c>
       <c r="H80" t="n">
-        <v>105307</v>
+        <v>7.561849433985647</v>
       </c>
       <c r="I80" t="n">
-        <v>7.561849433985647</v>
+        <v>0.0450459055958216</v>
       </c>
       <c r="J80" t="n">
-        <v>45.0459055958216</v>
+        <v>17.57888998861331</v>
       </c>
       <c r="K80" t="n">
-        <v>17.57888998861331</v>
+        <v>332063.637869751</v>
       </c>
       <c r="L80" t="n">
-        <v>332063.637869751</v>
+        <v>6166.743934752942</v>
       </c>
       <c r="M80" t="n">
-        <v>6166.743934752942</v>
-      </c>
-      <c r="N80" t="n">
         <v>2.737550228817028</v>
       </c>
     </row>
@@ -4314,38 +4072,35 @@
       <c r="D81" t="n">
         <v>21</v>
       </c>
-      <c r="E81" t="n">
-        <v>8</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G81" t="n">
+        <v>105307</v>
+      </c>
       <c r="H81" t="n">
-        <v>105307</v>
+        <v>7.311757434585764</v>
       </c>
       <c r="I81" t="n">
-        <v>7.311757434585764</v>
+        <v>0.04989468559585832</v>
       </c>
       <c r="J81" t="n">
-        <v>49.89468559585832</v>
+        <v>21.32548699102887</v>
       </c>
       <c r="K81" t="n">
-        <v>21.32548699102887</v>
+        <v>321081.3431483559</v>
       </c>
       <c r="L81" t="n">
-        <v>321081.3431483559</v>
+        <v>6830.537552855968</v>
       </c>
       <c r="M81" t="n">
-        <v>6830.537552855968</v>
-      </c>
-      <c r="N81" t="n">
         <v>2.654034919205685</v>
       </c>
     </row>
@@ -4362,38 +4117,35 @@
       <c r="D82" t="n">
         <v>21</v>
       </c>
-      <c r="E82" t="n">
-        <v>8</v>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G82" t="n">
+        <v>105307</v>
+      </c>
       <c r="H82" t="n">
-        <v>105307</v>
+        <v>7.535365071809547</v>
       </c>
       <c r="I82" t="n">
-        <v>7.535365071809547</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J82" t="n">
-        <v>46.00755582032544</v>
+        <v>19.66408889881505</v>
       </c>
       <c r="K82" t="n">
-        <v>19.66408889881505</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L82" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M82" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N82" t="n">
         <v>2.729202670760426</v>
       </c>
     </row>
@@ -4410,38 +4162,35 @@
       <c r="D83" t="n">
         <v>22</v>
       </c>
-      <c r="E83" t="n">
-        <v>8</v>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>105307</v>
+      </c>
       <c r="H83" t="n">
-        <v>105307</v>
+        <v>7.561849433985647</v>
       </c>
       <c r="I83" t="n">
-        <v>7.561849433985647</v>
+        <v>0.0450459055958216</v>
       </c>
       <c r="J83" t="n">
-        <v>45.0459055958216</v>
+        <v>18.37793044264119</v>
       </c>
       <c r="K83" t="n">
-        <v>18.37793044264119</v>
+        <v>332063.637869751</v>
       </c>
       <c r="L83" t="n">
-        <v>332063.637869751</v>
+        <v>6166.743934752942</v>
       </c>
       <c r="M83" t="n">
-        <v>6166.743934752942</v>
-      </c>
-      <c r="N83" t="n">
         <v>2.737550228817028</v>
       </c>
     </row>
@@ -4458,38 +4207,35 @@
       <c r="D84" t="n">
         <v>21</v>
       </c>
-      <c r="E84" t="n">
-        <v>8</v>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G84" t="n">
+        <v>105307</v>
+      </c>
       <c r="H84" t="n">
-        <v>105307</v>
+        <v>7.535365071809547</v>
       </c>
       <c r="I84" t="n">
-        <v>7.535365071809547</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J84" t="n">
-        <v>46.00755582032544</v>
+        <v>19.66408889881505</v>
       </c>
       <c r="K84" t="n">
-        <v>19.66408889881505</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L84" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M84" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N84" t="n">
         <v>2.729202670760426</v>
       </c>
     </row>
@@ -4506,38 +4252,35 @@
       <c r="D85" t="n">
         <v>21</v>
       </c>
-      <c r="E85" t="n">
-        <v>8</v>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>GWY Energy &amp; Water</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>GWY Energy &amp; Water</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
           <t>GWY</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>105307</v>
+      </c>
       <c r="H85" t="n">
-        <v>105307</v>
+        <v>7.535365071809547</v>
       </c>
       <c r="I85" t="n">
-        <v>7.535365071809547</v>
+        <v>0.04600755582032544</v>
       </c>
       <c r="J85" t="n">
-        <v>46.00755582032544</v>
+        <v>19.66408889881505</v>
       </c>
       <c r="K85" t="n">
-        <v>19.66408889881505</v>
+        <v>330900.629570309</v>
       </c>
       <c r="L85" t="n">
-        <v>330900.629570309</v>
+        <v>6298.392985002314</v>
       </c>
       <c r="M85" t="n">
-        <v>6298.392985002314</v>
-      </c>
-      <c r="N85" t="n">
         <v>2.729202670760426</v>
       </c>
     </row>
